--- a/StatusReport.xlsx
+++ b/StatusReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Project Name</t>
   </si>
@@ -67,18 +67,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>Task Planned</t>
-  </si>
-  <si>
-    <t>Task Completed</t>
-  </si>
-  <si>
-    <t>Task Delayed</t>
-  </si>
-  <si>
-    <t>Reason for delayed tasks</t>
   </si>
   <si>
     <t>Top 3 risks</t>
@@ -118,13 +106,95 @@
   <si>
     <t>This project is all about an E-commercrce
 website.It will provide our client to upload his product on online platform ,and to cutomers,they will get a glimps about the variety,pricing and quality of clothing which is available in the store.</t>
+  </si>
+  <si>
+    <t>Modules Planned</t>
+  </si>
+  <si>
+    <t>Modules Completed</t>
+  </si>
+  <si>
+    <t>Modules Delayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOR ADMIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-
+1.Admin can login the system.
+2.Admin can create categories.
+3.Admin can create subcategories.
+4.Admin can upload products.
+5.Admin can upload product features
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOR USERS-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.User can login the system.
+2.User can search for a particular Products.
+3.User can order a product.</t>
+    </r>
+  </si>
+  <si>
+    <t>All modules have been completed by
+May 2020.</t>
+  </si>
+  <si>
+    <t>Reason for delayed Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Payment integration
+2.Deployment
+</t>
+  </si>
+  <si>
+    <t>1.Insufficient knowledge
+2.Lack of coordination.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +216,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,19 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <fgColor rgb="FFDFDDBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -416,272 +490,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,6 +758,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFDFDDBF"/>
       <color rgb="FFEF8D43"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFDEBBF"/>
@@ -755,10 +780,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32686443234425627"/>
+          <c:x val="0.32686443234425677"/>
           <c:y val="5.7151679569465577E-3"/>
           <c:w val="0.25700711414240557"/>
-          <c:h val="0.97187586845761942"/>
+          <c:h val="0.97187586845761964"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -923,7 +948,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -939,9 +964,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33694622127457957"/>
-          <c:y val="6.4964157706093205E-3"/>
-          <c:w val="0.26391850272447293"/>
+          <c:x val="0.33694622127457996"/>
+          <c:y val="6.4964157706093239E-3"/>
+          <c:w val="0.26391850272447326"/>
           <c:h val="0.99350358422939056"/>
         </c:manualLayout>
       </c:layout>
@@ -1074,7 +1099,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1090,7 +1115,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3405294953802418"/>
+          <c:x val="0.34052949538024213"/>
           <c:y val="0"/>
           <c:w val="0.26563610518834402"/>
           <c:h val="1"/>
@@ -1227,7 +1252,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1681,13 +1706,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190881</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2176,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2187,436 +2212,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A1" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="63" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="63" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="53"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="32"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="55" t="s">
+      <c r="A6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="48">
+      <c r="J6" s="73"/>
+      <c r="K6" s="70">
         <v>43873</v>
       </c>
-      <c r="L6" s="49"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="55" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="54">
+      <c r="J7" s="73"/>
+      <c r="K7" s="74">
         <v>43971</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="55" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="54">
+      <c r="J8" s="73"/>
+      <c r="K8" s="74">
         <v>43966</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="55" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="54">
+      <c r="J9" s="73"/>
+      <c r="K9" s="74">
         <v>43976</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="58" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="48">
+      <c r="J10" s="50"/>
+      <c r="K10" s="70">
         <v>43981</v>
       </c>
-      <c r="L10" s="49"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" ht="65.25" customHeight="1" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A21" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A25" s="73">
+      <c r="A25" s="80">
         <v>1</v>
       </c>
-      <c r="B25" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="83" t="s">
         <v>25</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="76" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="6">
         <v>0.1</v>
@@ -2638,11 +2671,11 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="74"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="11">
         <v>0.1</v>
       </c>
@@ -2654,11 +2687,11 @@
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="74"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="11">
         <v>0.1</v>
       </c>
@@ -2670,11 +2703,11 @@
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="11">
         <v>0.7</v>
       </c>
@@ -2686,11 +2719,11 @@
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2700,11 +2733,11 @@
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -2714,16 +2747,16 @@
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A31" s="73">
+      <c r="A31" s="80">
         <v>2</v>
       </c>
-      <c r="B31" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="27" t="s">
+      <c r="B31" s="36" t="s">
         <v>26</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="76" t="s">
+        <v>22</v>
       </c>
       <c r="F31" s="6">
         <v>0.1</v>
@@ -2745,11 +2778,11 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="74"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="11">
         <v>0.1</v>
       </c>
@@ -2761,11 +2794,11 @@
       <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="74"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="11">
         <v>0.1</v>
       </c>
@@ -2777,11 +2810,11 @@
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="74"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="77"/>
       <c r="F34" s="11">
         <v>0.7</v>
       </c>
@@ -2793,11 +2826,11 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="74"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="14"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2807,11 +2840,11 @@
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -2821,16 +2854,16 @@
       <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A37" s="73">
+      <c r="A37" s="80">
         <v>3</v>
       </c>
-      <c r="B37" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="27" t="s">
+      <c r="B37" s="83" t="s">
         <v>27</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="76" t="s">
+        <v>23</v>
       </c>
       <c r="F37" s="6">
         <v>0.1</v>
@@ -2851,11 +2884,11 @@
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="74"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="11">
         <v>0.1</v>
       </c>
@@ -2867,11 +2900,11 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="74"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="28"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="11">
         <v>0.1</v>
       </c>
@@ -2883,11 +2916,11 @@
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="74"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="77"/>
       <c r="F40" s="11">
         <v>0.7</v>
       </c>
@@ -2899,11 +2932,11 @@
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="74"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="28"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="14"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2913,11 +2946,11 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -2929,6 +2962,37 @@
     <row r="43" spans="1:12" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B25:D30"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="B37:D42"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="I12:L19"/>
     <mergeCell ref="E12:H19"/>
@@ -2945,37 +3009,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="A6:D10"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="B37:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:J10">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="On Track">
